--- a/MyDSA.xlsx
+++ b/MyDSA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27630"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uithcm-my.sharepoint.com/personal/23521406_ms_uit_edu_vn/Documents/UIT/HK2/6.DSA/MyDSA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyDSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="99" documentId="11_DF586F1FC6CF70D3623DC6FA8731F45B7A736E46" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90A4538C-5192-4820-B96A-C4ECE4F0D4D4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F948D527-82CE-4A73-986B-6E518FAC36D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>Ngày</t>
   </si>
@@ -84,13 +84,19 @@
   </si>
   <si>
     <t>quay lui</t>
+  </si>
+  <si>
+    <t>tham lam</t>
+  </si>
+  <si>
+    <t>quy hoạch động</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -410,8 +416,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -746,18 +752,18 @@
   <dimension ref="B2:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="20.125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="20.375" customWidth="1"/>
+    <col min="4" max="4" width="20.09765625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="20.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -771,7 +777,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="23">
         <v>45418</v>
       </c>
@@ -785,7 +791,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="24"/>
       <c r="C4" s="21" t="s">
         <v>6</v>
@@ -795,7 +801,7 @@
       </c>
       <c r="E4" s="19"/>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="24"/>
       <c r="C5" s="22"/>
       <c r="D5" s="8" t="s">
@@ -803,7 +809,7 @@
       </c>
       <c r="E5" s="19"/>
     </row>
-    <row r="6" spans="2:5" ht="14.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="24"/>
       <c r="C6" s="1" t="s">
         <v>9</v>
@@ -813,7 +819,7 @@
       </c>
       <c r="E6" s="20"/>
     </row>
-    <row r="7" spans="2:5" ht="13.9" customHeight="1">
+    <row r="7" spans="2:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="15">
         <v>45419</v>
       </c>
@@ -827,7 +833,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="13.9" customHeight="1">
+    <row r="8" spans="2:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="16"/>
       <c r="C8" s="26"/>
       <c r="D8" s="14" t="s">
@@ -835,19 +841,19 @@
       </c>
       <c r="E8" s="19"/>
     </row>
-    <row r="9" spans="2:5" ht="13.9" customHeight="1">
+    <row r="9" spans="2:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="16"/>
       <c r="C9" s="26"/>
       <c r="D9" s="12"/>
       <c r="E9" s="19"/>
     </row>
-    <row r="10" spans="2:5" ht="13.9" customHeight="1">
+    <row r="10" spans="2:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="17"/>
       <c r="C10" s="27"/>
       <c r="D10" s="13"/>
       <c r="E10" s="20"/>
     </row>
-    <row r="11" spans="2:5" ht="14.25">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="15">
         <v>45420</v>
       </c>
@@ -861,7 +867,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:5">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="16"/>
       <c r="C12" s="2" t="s">
         <v>15</v>
@@ -869,145 +875,149 @@
       <c r="D12" s="9"/>
       <c r="E12" s="19"/>
     </row>
-    <row r="13" spans="2:5">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="16"/>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="D13" s="9"/>
       <c r="E13" s="19"/>
     </row>
-    <row r="14" spans="2:5">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="17"/>
-      <c r="C14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="D14" s="9"/>
       <c r="E14" s="20"/>
     </row>
-    <row r="15" spans="2:5">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="9"/>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="2:5">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="9"/>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="9"/>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="9"/>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" spans="2:5">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="9"/>
       <c r="E19" s="6"/>
     </row>
-    <row r="20" spans="2:5">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="9"/>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" spans="2:5">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="9"/>
       <c r="E21" s="6"/>
     </row>
-    <row r="22" spans="2:5">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="9"/>
       <c r="E22" s="6"/>
     </row>
-    <row r="23" spans="2:5">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="9"/>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" spans="2:5">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="9"/>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" spans="2:5">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="9"/>
       <c r="E25" s="6"/>
     </row>
-    <row r="26" spans="2:5">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="9"/>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="2:5">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="9"/>
       <c r="E27" s="6"/>
     </row>
-    <row r="28" spans="2:5">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="9"/>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" spans="2:5">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="9"/>
       <c r="E29" s="6"/>
     </row>
-    <row r="30" spans="2:5">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="9"/>
       <c r="E30" s="6"/>
     </row>
-    <row r="31" spans="2:5">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="9"/>
       <c r="E31" s="6"/>
     </row>
-    <row r="32" spans="2:5">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="9"/>
       <c r="E32" s="6"/>
     </row>
-    <row r="33" spans="2:5">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="9"/>
       <c r="E33" s="6"/>
     </row>
-    <row r="34" spans="2:5">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="9"/>
       <c r="E34" s="6"/>
     </row>
-    <row r="35" spans="2:5">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="9"/>
       <c r="E35" s="6"/>
     </row>
-    <row r="36" spans="2:5">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="9"/>

--- a/MyDSA.xlsx
+++ b/MyDSA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyDSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F948D527-82CE-4A73-986B-6E518FAC36D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8347C413-2BFC-4924-9781-5895D540F2F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1764" yWindow="1140" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" r:id="rId1"/>
@@ -751,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/MyDSA.xlsx
+++ b/MyDSA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyDSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8347C413-2BFC-4924-9781-5895D540F2F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273EE9C2-89FD-4739-BBFD-8423A5EA0718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1764" yWindow="1140" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Ngày</t>
   </si>
@@ -90,6 +90,12 @@
   </si>
   <si>
     <t>quy hoạch động</t>
+  </si>
+  <si>
+    <t>Tìm kiếm</t>
+  </si>
+  <si>
+    <t>Sắp xếp</t>
   </si>
 </sst>
 </file>
@@ -751,8 +757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -892,25 +898,31 @@
       <c r="E14" s="20"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="B15" s="15">
+        <v>45421</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="D15" s="9"/>
       <c r="E15" s="6"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="D16" s="9"/>
       <c r="E16" s="6"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
+      <c r="B17" s="16"/>
       <c r="C17" s="2"/>
       <c r="D17" s="9"/>
       <c r="E17" s="6"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
+      <c r="B18" s="17"/>
       <c r="C18" s="2"/>
       <c r="D18" s="9"/>
       <c r="E18" s="6"/>
@@ -1024,7 +1036,8 @@
       <c r="E36" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="B15:B18"/>
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="E11:E14"/>
     <mergeCell ref="C4:C5"/>

--- a/MyDSA.xlsx
+++ b/MyDSA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyDSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273EE9C2-89FD-4739-BBFD-8423A5EA0718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710DF681-F7CF-4C2C-BD4F-DDA15DD41691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>Ngày</t>
   </si>
@@ -89,13 +89,19 @@
     <t>tham lam</t>
   </si>
   <si>
-    <t>quy hoạch động</t>
-  </si>
-  <si>
-    <t>Tìm kiếm</t>
-  </si>
-  <si>
-    <t>Sắp xếp</t>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>Basic sort</t>
+  </si>
+  <si>
+    <t>quy hoạch động 1</t>
+  </si>
+  <si>
+    <t>quy hoạch động 2</t>
+  </si>
+  <si>
+    <t>DSA my training</t>
   </si>
 </sst>
 </file>
@@ -757,8 +763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -892,7 +898,7 @@
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="17"/>
       <c r="C14" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="20"/>
@@ -902,30 +908,36 @@
         <v>45421</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="16"/>
       <c r="C16" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16" s="9"/>
-      <c r="E16" s="6"/>
+      <c r="E16" s="19"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="16"/>
-      <c r="C17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="D17" s="9"/>
-      <c r="E17" s="6"/>
+      <c r="E17" s="19"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="17"/>
       <c r="C18" s="2"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="6"/>
+      <c r="E18" s="20"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
@@ -1036,7 +1048,7 @@
       <c r="E36" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="B15:B18"/>
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="E11:E14"/>
@@ -1046,9 +1058,10 @@
     <mergeCell ref="E7:E10"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="C7:C10"/>
+    <mergeCell ref="E15:E18"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E14" xr:uid="{BCBDDB21-E9F5-46EC-AB72-1EC828DD7146}">
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E18" xr:uid="{BCBDDB21-E9F5-46EC-AB72-1EC828DD7146}">
       <formula1>"Đã xong, đang học, chưa học"</formula1>
     </dataValidation>
   </dataValidations>

--- a/MyDSA.xlsx
+++ b/MyDSA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyDSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710DF681-F7CF-4C2C-BD4F-DDA15DD41691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07AB4DE6-F8C6-43CB-BCFA-5A23A95816DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>Ngày</t>
   </si>
@@ -102,6 +102,12 @@
   </si>
   <si>
     <t>DSA my training</t>
+  </si>
+  <si>
+    <t>(734) 16 bài Quy Hoạch Động cơ bản [C++] (Dynamic Programming) - YouTube</t>
+  </si>
+  <si>
+    <t>(734) #48 [C++]. Thuật Toán Quay Lui | Bài Toán N Quân Hậu Ngôn Ngữ Lập Trình C++ - YouTube</t>
   </si>
 </sst>
 </file>
@@ -125,7 +131,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -140,7 +146,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,18 +373,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -368,63 +386,127 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -764,288 +846,296 @@
   <dimension ref="B2:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="20.09765625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="26.19921875" style="7" customWidth="1"/>
     <col min="5" max="5" width="20.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="23">
+      <c r="B3" s="8">
         <v>45418</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="24"/>
-      <c r="C4" s="21" t="s">
+      <c r="B4" s="12"/>
+      <c r="C4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="19"/>
+      <c r="E4" s="14"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="24"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="8" t="s">
+      <c r="B5" s="12"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="19"/>
+      <c r="E5" s="14"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="24"/>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="20"/>
+      <c r="E6" s="17"/>
     </row>
     <row r="7" spans="2:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="15">
+      <c r="B7" s="18">
         <v>45419</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="21" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="16"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="14" t="s">
+      <c r="B8" s="22"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="19"/>
+      <c r="E8" s="25"/>
     </row>
     <row r="9" spans="2:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="16"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="19"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="25"/>
     </row>
     <row r="10" spans="2:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="17"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="20"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="30"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="15">
+      <c r="B11" s="31">
         <v>45420</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="34" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="16"/>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="35"/>
+      <c r="C12" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="19"/>
+      <c r="D12" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="37"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="16"/>
-      <c r="C13" s="2" t="s">
+      <c r="B13" s="35"/>
+      <c r="C13" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="19"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="37"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="17"/>
-      <c r="C14" s="2" t="s">
+      <c r="B14" s="38"/>
+      <c r="C14" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="20"/>
+      <c r="D14" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="39"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="15">
+      <c r="B15" s="40">
         <v>45421</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="43" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="16"/>
-      <c r="C16" s="2" t="s">
+      <c r="B16" s="44"/>
+      <c r="C16" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="19"/>
+      <c r="D16" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="45"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="16"/>
-      <c r="C17" s="2" t="s">
+      <c r="B17" s="44"/>
+      <c r="C17" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="19"/>
+      <c r="D17" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="45"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="17"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="20"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="47"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="6"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="4"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="6"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="4"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="6"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="4"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="6"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="4"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="6"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="4"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="6"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="4"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="6"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="4"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="6"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="4"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="6"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="4"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="6"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="4"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="6"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="4"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="6"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="4"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="6"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="4"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="6"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="4"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="6"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="4"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="6"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="4"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="6"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="4"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="6"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1060,7 +1150,7 @@
     <mergeCell ref="C7:C10"/>
     <mergeCell ref="E15:E18"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E18" xr:uid="{BCBDDB21-E9F5-46EC-AB72-1EC828DD7146}">
       <formula1>"Đã xong, đang học, chưa học"</formula1>
     </dataValidation>
@@ -1072,7 +1162,10 @@
     <hyperlink ref="D6" r:id="rId4" xr:uid="{341590BE-0704-476A-89C4-24776352D5B4}"/>
     <hyperlink ref="D7" r:id="rId5" xr:uid="{98745174-C39D-48B7-A13C-E8491967C360}"/>
     <hyperlink ref="D8" r:id="rId6" xr:uid="{E268BC9D-7401-4FC0-B83A-8C4735C1605B}"/>
-    <hyperlink ref="D11" r:id="rId7" xr:uid="{8834940B-225C-4686-975E-487E9D7C7913}"/>
+    <hyperlink ref="D14" r:id="rId7" display="https://www.youtube.com/watch?v=FcPcQ7bccxM&amp;t=2483s" xr:uid="{3F1EFF05-D15F-4090-B6D0-A209A1AA85B0}"/>
+    <hyperlink ref="D17" r:id="rId8" display="https://www.youtube.com/watch?v=FcPcQ7bccxM&amp;t=2483s" xr:uid="{36E697D0-8046-4C36-BE07-67000A3AF509}"/>
+    <hyperlink ref="D11" r:id="rId9" xr:uid="{8834940B-225C-4686-975E-487E9D7C7913}"/>
+    <hyperlink ref="D12" r:id="rId10" display="https://www.youtube.com/watch?v=efpaZznImN4" xr:uid="{07CE766C-102B-4D05-A739-B2D2C2C8D49A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/MyDSA.xlsx
+++ b/MyDSA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyDSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07AB4DE6-F8C6-43CB-BCFA-5A23A95816DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C8E784-65D6-43B6-BECB-B58AB73698FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t>Ngày</t>
   </si>
@@ -95,12 +95,6 @@
     <t>Basic sort</t>
   </si>
   <si>
-    <t>quy hoạch động 1</t>
-  </si>
-  <si>
-    <t>quy hoạch động 2</t>
-  </si>
-  <si>
     <t>DSA my training</t>
   </si>
   <si>
@@ -108,6 +102,33 @@
   </si>
   <si>
     <t>(734) #48 [C++]. Thuật Toán Quay Lui | Bài Toán N Quân Hậu Ngôn Ngữ Lập Trình C++ - YouTube</t>
+  </si>
+  <si>
+    <t>quy hoạch động basic 1</t>
+  </si>
+  <si>
+    <t>quy hoạch động basic 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sort-nâng cao </t>
+  </si>
+  <si>
+    <t>chưa học</t>
+  </si>
+  <si>
+    <t>Linked link</t>
+  </si>
+  <si>
+    <t>stack and queue</t>
+  </si>
+  <si>
+    <t>Tree</t>
+  </si>
+  <si>
+    <t>Hash Table</t>
+  </si>
+  <si>
+    <t>Graph</t>
   </si>
 </sst>
 </file>
@@ -131,7 +152,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -168,6 +189,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -373,140 +412,238 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -843,302 +980,388 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:E36"/>
+  <dimension ref="B2:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="26.19921875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="26" style="79" customWidth="1"/>
+    <col min="4" max="4" width="26.19921875" style="4" customWidth="1"/>
     <col min="5" max="5" width="20.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="8">
+      <c r="B3" s="24">
         <v>45418</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="26" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="12"/>
-      <c r="C4" s="13" t="s">
+      <c r="B4" s="25"/>
+      <c r="C4" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="14"/>
+      <c r="E4" s="27"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="12"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="10" t="s">
+      <c r="B5" s="25"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="14"/>
+      <c r="E5" s="27"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="12"/>
-      <c r="C6" s="16" t="s">
+      <c r="B6" s="25"/>
+      <c r="C6" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="17"/>
+      <c r="E6" s="28"/>
     </row>
     <row r="7" spans="2:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="18">
+      <c r="B7" s="32">
         <v>45419</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="29" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="22"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="24" t="s">
+      <c r="B8" s="33"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="25"/>
+      <c r="E8" s="30"/>
     </row>
     <row r="9" spans="2:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="22"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="25"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="30"/>
     </row>
     <row r="10" spans="2:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="27"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="30"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="31"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="31">
+      <c r="B11" s="18">
         <v>45420</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="E11" s="21" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="35"/>
-      <c r="C12" s="32" t="s">
+      <c r="B12" s="19"/>
+      <c r="C12" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="22"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="19"/>
+      <c r="C13" s="72" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="22"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="20"/>
+      <c r="C14" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="23"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="15">
+        <v>45421</v>
+      </c>
+      <c r="C15" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="16"/>
+      <c r="C16" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="36"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="16"/>
+      <c r="C17" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="37"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="35"/>
-      <c r="C13" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="37"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="38"/>
-      <c r="C14" s="32" t="s">
+      <c r="D17" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="36"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="17"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="37"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="38">
+        <v>45422</v>
+      </c>
+      <c r="C19" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="39"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="40">
-        <v>45421</v>
-      </c>
-      <c r="C15" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="43" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="44"/>
-      <c r="C16" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="45"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="44"/>
-      <c r="C17" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="45"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="46"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="47"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="4"/>
+      <c r="E19" s="42" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="4"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="43"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="4"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="43"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="4"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="44"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="4"/>
+      <c r="B23" s="45">
+        <v>45423</v>
+      </c>
+      <c r="C23" s="75" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="46"/>
+      <c r="E23" s="42" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="4"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="43"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="4"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="43"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="4"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="44"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="4"/>
+      <c r="B27" s="49">
+        <v>45424</v>
+      </c>
+      <c r="C27" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="42" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="4"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="43"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="4"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="72"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="43"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="4"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="44"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="4"/>
+      <c r="B31" s="52">
+        <v>45425</v>
+      </c>
+      <c r="C31" s="76" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="53"/>
+      <c r="E31" s="42" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="4"/>
+      <c r="B32" s="54"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="43"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="4"/>
+      <c r="B33" s="54"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="43"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="4"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="76"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="44"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="4"/>
+      <c r="B35" s="56">
+        <v>45426</v>
+      </c>
+      <c r="C35" s="77" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="57"/>
+      <c r="E35" s="42" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="4"/>
+      <c r="B36" s="58"/>
+      <c r="C36" s="77"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="43"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="58"/>
+      <c r="C37" s="77"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="43"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="59"/>
+      <c r="C38" s="77"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="44"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="60">
+        <v>45427</v>
+      </c>
+      <c r="C39" s="78" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" s="61"/>
+      <c r="E39" s="42" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="62"/>
+      <c r="C40" s="78"/>
+      <c r="D40" s="61"/>
+      <c r="E40" s="43"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="62"/>
+      <c r="C41" s="78"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="43"/>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="63"/>
+      <c r="C42" s="78"/>
+      <c r="D42" s="61"/>
+      <c r="E42" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="22">
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="E39:E42"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="B31:B34"/>
     <mergeCell ref="B15:B18"/>
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="E11:E14"/>
@@ -1151,7 +1374,7 @@
     <mergeCell ref="E15:E18"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E18" xr:uid="{BCBDDB21-E9F5-46EC-AB72-1EC828DD7146}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E42" xr:uid="{BCBDDB21-E9F5-46EC-AB72-1EC828DD7146}">
       <formula1>"Đã xong, đang học, chưa học"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1168,5 +1391,6 @@
     <hyperlink ref="D12" r:id="rId10" display="https://www.youtube.com/watch?v=efpaZznImN4" xr:uid="{07CE766C-102B-4D05-A739-B2D2C2C8D49A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
--- a/MyDSA.xlsx
+++ b/MyDSA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyDSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C8E784-65D6-43B6-BECB-B58AB73698FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81101A76-B934-4168-BB41-B345A342523D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t>Ngày</t>
   </si>
@@ -116,9 +116,6 @@
     <t>chưa học</t>
   </si>
   <si>
-    <t>Linked link</t>
-  </si>
-  <si>
     <t>stack and queue</t>
   </si>
   <si>
@@ -129,6 +126,12 @@
   </si>
   <si>
     <t>Graph</t>
+  </si>
+  <si>
+    <t>Linked list</t>
+  </si>
+  <si>
+    <t>(749) #46. [C++]. Danh Sách Liên Kết Đơn Ngôn Ngữ Lập Trình C++| Quản Lý Sinh Viên Bằng Danh Sách Liên Kết - YouTube</t>
   </si>
 </sst>
 </file>
@@ -412,7 +415,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -450,167 +453,161 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -621,30 +618,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
@@ -980,16 +964,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:E42"/>
+  <dimension ref="B2:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="B11" sqref="B11:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26" style="79" customWidth="1"/>
+    <col min="3" max="3" width="26" style="29" customWidth="1"/>
     <col min="4" max="4" width="26.19921875" style="4" customWidth="1"/>
     <col min="5" max="5" width="20.3984375" customWidth="1"/>
   </cols>
@@ -998,7 +982,7 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="20" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -1009,359 +993,323 @@
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="24">
+      <c r="B3" s="59">
         <v>45418</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="21" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="61" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="25"/>
-      <c r="C4" s="66" t="s">
+      <c r="B4" s="60"/>
+      <c r="C4" s="57" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="27"/>
+      <c r="E4" s="62"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="25"/>
-      <c r="C5" s="67"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="58"/>
       <c r="D5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="27"/>
+      <c r="E5" s="62"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="25"/>
-      <c r="C6" s="68" t="s">
+      <c r="B6" s="60"/>
+      <c r="C6" s="22" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="28"/>
+      <c r="E6" s="63"/>
     </row>
     <row r="7" spans="2:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="32">
+      <c r="B7" s="48">
         <v>45419</v>
       </c>
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="67" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="64" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="33"/>
-      <c r="C8" s="70"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="68"/>
       <c r="D8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="30"/>
+      <c r="E8" s="65"/>
     </row>
     <row r="9" spans="2:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="33"/>
-      <c r="C9" s="70"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="68"/>
       <c r="D9" s="8"/>
-      <c r="E9" s="30"/>
+      <c r="E9" s="65"/>
     </row>
     <row r="10" spans="2:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="34"/>
-      <c r="C10" s="71"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="69"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="31"/>
+      <c r="E10" s="66"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="18">
+      <c r="B11" s="45">
         <v>45420</v>
       </c>
-      <c r="C11" s="72" t="s">
+      <c r="C11" s="23" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="54" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="19"/>
-      <c r="C12" s="72" t="s">
+      <c r="B12" s="46"/>
+      <c r="C12" s="23" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="22"/>
+      <c r="E12" s="55"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="19"/>
-      <c r="C13" s="72" t="s">
+      <c r="B13" s="46"/>
+      <c r="C13" s="23" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="11"/>
-      <c r="E13" s="22"/>
+      <c r="E13" s="55"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="20"/>
-      <c r="C14" s="72" t="s">
+      <c r="B14" s="47"/>
+      <c r="C14" s="23" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="23"/>
+      <c r="E14" s="56"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="15">
+      <c r="B15" s="51">
         <v>45421</v>
       </c>
-      <c r="C15" s="73" t="s">
+      <c r="C15" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="70" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="16"/>
-      <c r="C16" s="73" t="s">
+      <c r="B16" s="52"/>
+      <c r="C16" s="24" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="36"/>
+      <c r="E16" s="71"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="16"/>
-      <c r="C17" s="73" t="s">
+      <c r="B17" s="52"/>
+      <c r="C17" s="24" t="s">
         <v>23</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="36"/>
+      <c r="E17" s="71"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="17"/>
-      <c r="C18" s="73"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="24"/>
       <c r="D18" s="14"/>
-      <c r="E18" s="37"/>
+      <c r="E18" s="72"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="38">
+      <c r="B19" s="39">
         <v>45422</v>
       </c>
-      <c r="C19" s="74" t="s">
+      <c r="C19" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="39" t="s">
+      <c r="D19" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="42" t="s">
-        <v>25</v>
+      <c r="E19" s="36" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="40"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="43"/>
+      <c r="C20" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="37"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="40"/>
-      <c r="C21" s="74"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="43"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="37"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="41"/>
-      <c r="C22" s="74"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="44"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="38"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="45">
+      <c r="B23" s="42">
         <v>45423</v>
       </c>
-      <c r="C23" s="75" t="s">
+      <c r="C23" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="46"/>
-      <c r="E23" s="42" t="s">
+      <c r="D23" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="61" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="47"/>
-      <c r="C24" s="75"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="43"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="62"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="47"/>
-      <c r="C25" s="75"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="43"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="62"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="48"/>
-      <c r="C26" s="75"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="44"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="63"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="49">
+      <c r="B27" s="48">
         <v>45424</v>
       </c>
-      <c r="C27" s="72" t="s">
+      <c r="C27" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="42" t="s">
+      <c r="D27" s="17"/>
+      <c r="E27" s="36" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="50"/>
-      <c r="C28" s="72"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="43"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="37"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="50"/>
-      <c r="C29" s="72"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="43"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="37"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="51"/>
-      <c r="C30" s="72"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="44"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="38"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="52">
+      <c r="B31" s="30">
         <v>45425</v>
       </c>
-      <c r="C31" s="76" t="s">
+      <c r="C31" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="53"/>
-      <c r="E31" s="42" t="s">
+      <c r="D31" s="18"/>
+      <c r="E31" s="36" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="54"/>
-      <c r="C32" s="76"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="43"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="37"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="54"/>
-      <c r="C33" s="76"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="43"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="37"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="55"/>
-      <c r="C34" s="76"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="44"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="38"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="56">
+      <c r="B35" s="33">
         <v>45426</v>
       </c>
-      <c r="C35" s="77" t="s">
+      <c r="C35" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="D35" s="57"/>
-      <c r="E35" s="42" t="s">
+      <c r="D35" s="19"/>
+      <c r="E35" s="36" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="58"/>
-      <c r="C36" s="77"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="43"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="37"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="58"/>
-      <c r="C37" s="77"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="43"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="37"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="59"/>
-      <c r="C38" s="77"/>
-      <c r="D38" s="57"/>
-      <c r="E38" s="44"/>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="60">
-        <v>45427</v>
-      </c>
-      <c r="C39" s="78" t="s">
-        <v>30</v>
-      </c>
-      <c r="D39" s="61"/>
-      <c r="E39" s="42" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="62"/>
-      <c r="C40" s="78"/>
-      <c r="D40" s="61"/>
-      <c r="E40" s="43"/>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="62"/>
-      <c r="C41" s="78"/>
-      <c r="D41" s="61"/>
-      <c r="E41" s="43"/>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="63"/>
-      <c r="C42" s="78"/>
-      <c r="D42" s="61"/>
-      <c r="E42" s="44"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="E27:E30"/>
-    <mergeCell ref="E31:E34"/>
-    <mergeCell ref="E35:E38"/>
-    <mergeCell ref="E39:E42"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="B31:B34"/>
+  <mergeCells count="20">
     <mergeCell ref="B15:B18"/>
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="E11:E14"/>
@@ -1372,9 +1320,19 @@
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="C7:C10"/>
     <mergeCell ref="E15:E18"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="E35:E38"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E42" xr:uid="{BCBDDB21-E9F5-46EC-AB72-1EC828DD7146}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E38" xr:uid="{BCBDDB21-E9F5-46EC-AB72-1EC828DD7146}">
       <formula1>"Đã xong, đang học, chưa học"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1389,8 +1347,10 @@
     <hyperlink ref="D17" r:id="rId8" display="https://www.youtube.com/watch?v=FcPcQ7bccxM&amp;t=2483s" xr:uid="{36E697D0-8046-4C36-BE07-67000A3AF509}"/>
     <hyperlink ref="D11" r:id="rId9" xr:uid="{8834940B-225C-4686-975E-487E9D7C7913}"/>
     <hyperlink ref="D12" r:id="rId10" display="https://www.youtube.com/watch?v=efpaZznImN4" xr:uid="{07CE766C-102B-4D05-A739-B2D2C2C8D49A}"/>
+    <hyperlink ref="D23" r:id="rId11" display="https://www.youtube.com/watch?v=mdG5TEiJTx8&amp;t=3855s" xr:uid="{AC01EE96-C1CB-4893-8E2E-21302AA882BF}"/>
+    <hyperlink ref="D20" r:id="rId12" display="https://www.youtube.com/watch?v=mdG5TEiJTx8&amp;t=3855s" xr:uid="{73F66AC9-3741-4EA6-AAFB-D01A29DCC998}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
--- a/MyDSA.xlsx
+++ b/MyDSA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyDSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81101A76-B934-4168-BB41-B345A342523D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E471F9A0-647E-47F9-8DFE-686EC240D38B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -498,49 +498,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -550,24 +516,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -609,6 +557,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -627,8 +584,51 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
@@ -966,8 +966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:B14"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -993,7 +993,7 @@
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="59">
+      <c r="B3" s="43">
         <v>45418</v>
       </c>
       <c r="C3" s="21" t="s">
@@ -1002,74 +1002,74 @@
       <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="61" t="s">
+      <c r="E3" s="45" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="60"/>
-      <c r="C4" s="57" t="s">
+      <c r="B4" s="44"/>
+      <c r="C4" s="41" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="62"/>
+      <c r="E4" s="46"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="60"/>
-      <c r="C5" s="58"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="42"/>
       <c r="D5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="62"/>
+      <c r="E5" s="46"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="60"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="22" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="63"/>
+      <c r="E6" s="47"/>
     </row>
     <row r="7" spans="2:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="48">
+      <c r="B7" s="51">
         <v>45419</v>
       </c>
-      <c r="C7" s="67" t="s">
+      <c r="C7" s="54" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="64" t="s">
+      <c r="E7" s="48" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="49"/>
-      <c r="C8" s="68"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="55"/>
       <c r="D8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="65"/>
+      <c r="E8" s="49"/>
     </row>
     <row r="9" spans="2:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="49"/>
-      <c r="C9" s="68"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="55"/>
       <c r="D9" s="8"/>
-      <c r="E9" s="65"/>
+      <c r="E9" s="49"/>
     </row>
     <row r="10" spans="2:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="50"/>
-      <c r="C10" s="69"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="56"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="66"/>
+      <c r="E10" s="50"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="45">
+      <c r="B11" s="35">
         <v>45420</v>
       </c>
       <c r="C11" s="23" t="s">
@@ -1078,40 +1078,40 @@
       <c r="D11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="54" t="s">
+      <c r="E11" s="38" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="46"/>
+      <c r="B12" s="36"/>
       <c r="C12" s="23" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="55"/>
+      <c r="E12" s="39"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="46"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="23" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="11"/>
-      <c r="E13" s="55"/>
+      <c r="E13" s="39"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="47"/>
+      <c r="B14" s="37"/>
       <c r="C14" s="23" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="56"/>
+      <c r="E14" s="40"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="51">
+      <c r="B15" s="32">
         <v>45421</v>
       </c>
       <c r="C15" s="24" t="s">
@@ -1120,38 +1120,38 @@
       <c r="D15" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="70" t="s">
+      <c r="E15" s="57" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="52"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="24" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="71"/>
+      <c r="E16" s="58"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="52"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="24" t="s">
         <v>23</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="71"/>
+      <c r="E17" s="58"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="53"/>
+      <c r="B18" s="34"/>
       <c r="C18" s="24"/>
       <c r="D18" s="14"/>
-      <c r="E18" s="72"/>
+      <c r="E18" s="59"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="39">
+      <c r="B19" s="60">
         <v>45422</v>
       </c>
       <c r="C19" s="25" t="s">
@@ -1160,156 +1160,166 @@
       <c r="D19" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="36" t="s">
+      <c r="E19" s="63" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="40"/>
+      <c r="B20" s="61"/>
       <c r="C20" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="73" t="s">
+      <c r="D20" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="37"/>
+      <c r="E20" s="64"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="40"/>
+      <c r="B21" s="61"/>
       <c r="C21" s="25"/>
       <c r="D21" s="15"/>
-      <c r="E21" s="37"/>
+      <c r="E21" s="64"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="41"/>
+      <c r="B22" s="62"/>
       <c r="C22" s="25"/>
       <c r="D22" s="15"/>
-      <c r="E22" s="38"/>
+      <c r="E22" s="65"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="42">
+      <c r="B23" s="66">
         <v>45423</v>
       </c>
       <c r="C23" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="74" t="s">
+      <c r="D23" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="61" t="s">
-        <v>25</v>
+      <c r="E23" s="45" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="43"/>
+      <c r="B24" s="67"/>
       <c r="C24" s="22"/>
       <c r="D24" s="16"/>
-      <c r="E24" s="62"/>
+      <c r="E24" s="46"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="43"/>
+      <c r="B25" s="67"/>
       <c r="C25" s="22"/>
       <c r="D25" s="16"/>
-      <c r="E25" s="62"/>
+      <c r="E25" s="46"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="44"/>
+      <c r="B26" s="68"/>
       <c r="C26" s="22"/>
       <c r="D26" s="16"/>
-      <c r="E26" s="63"/>
+      <c r="E26" s="47"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="48">
+      <c r="B27" s="51">
         <v>45424</v>
       </c>
       <c r="C27" s="26" t="s">
         <v>27</v>
       </c>
       <c r="D27" s="17"/>
-      <c r="E27" s="36" t="s">
+      <c r="E27" s="48" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="49"/>
+      <c r="B28" s="52"/>
       <c r="C28" s="26"/>
       <c r="D28" s="17"/>
-      <c r="E28" s="37"/>
+      <c r="E28" s="49"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="49"/>
+      <c r="B29" s="52"/>
       <c r="C29" s="26"/>
       <c r="D29" s="17"/>
-      <c r="E29" s="37"/>
+      <c r="E29" s="49"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="50"/>
+      <c r="B30" s="53"/>
       <c r="C30" s="26"/>
       <c r="D30" s="17"/>
-      <c r="E30" s="38"/>
+      <c r="E30" s="50"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="30">
+      <c r="B31" s="69">
         <v>45425</v>
       </c>
       <c r="C31" s="27" t="s">
         <v>28</v>
       </c>
       <c r="D31" s="18"/>
-      <c r="E31" s="36" t="s">
+      <c r="E31" s="63" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="31"/>
+      <c r="B32" s="70"/>
       <c r="C32" s="27"/>
       <c r="D32" s="18"/>
-      <c r="E32" s="37"/>
+      <c r="E32" s="64"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="31"/>
+      <c r="B33" s="70"/>
       <c r="C33" s="27"/>
       <c r="D33" s="18"/>
-      <c r="E33" s="37"/>
+      <c r="E33" s="64"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="32"/>
+      <c r="B34" s="71"/>
       <c r="C34" s="27"/>
       <c r="D34" s="18"/>
-      <c r="E34" s="38"/>
+      <c r="E34" s="65"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="33">
+      <c r="B35" s="72">
         <v>45426</v>
       </c>
       <c r="C35" s="28" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="19"/>
-      <c r="E35" s="36" t="s">
+      <c r="E35" s="63" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="34"/>
+      <c r="B36" s="73"/>
       <c r="C36" s="28"/>
       <c r="D36" s="19"/>
-      <c r="E36" s="37"/>
+      <c r="E36" s="64"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="34"/>
+      <c r="B37" s="73"/>
       <c r="C37" s="28"/>
       <c r="D37" s="19"/>
-      <c r="E37" s="37"/>
+      <c r="E37" s="64"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="35"/>
+      <c r="B38" s="74"/>
       <c r="C38" s="28"/>
       <c r="D38" s="19"/>
-      <c r="E38" s="38"/>
+      <c r="E38" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="B31:B34"/>
     <mergeCell ref="B15:B18"/>
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="E11:E14"/>
@@ -1320,16 +1330,6 @@
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="C7:C10"/>
     <mergeCell ref="E15:E18"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="E27:E30"/>
-    <mergeCell ref="E31:E34"/>
-    <mergeCell ref="E35:E38"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E38" xr:uid="{BCBDDB21-E9F5-46EC-AB72-1EC828DD7146}">

--- a/MyDSA.xlsx
+++ b/MyDSA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyDSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E471F9A0-647E-47F9-8DFE-686EC240D38B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEAFAA76-8BAB-4681-8B21-51B912F59C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
   <si>
     <t>Ngày</t>
   </si>
@@ -132,6 +132,15 @@
   </si>
   <si>
     <t>(749) #46. [C++]. Danh Sách Liên Kết Đơn Ngôn Ngữ Lập Trình C++| Quản Lý Sinh Viên Bằng Danh Sách Liên Kết - YouTube</t>
+  </si>
+  <si>
+    <t>Binary Tree</t>
+  </si>
+  <si>
+    <t>Binary Search Tree</t>
+  </si>
+  <si>
+    <t>Balance Tree</t>
   </si>
 </sst>
 </file>
@@ -155,7 +164,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -164,54 +173,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.89999084444715716"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="16">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -404,6 +371,41 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
       <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
@@ -415,218 +417,128 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -964,362 +876,384 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:E38"/>
+  <dimension ref="B2:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26" style="29" customWidth="1"/>
-    <col min="4" max="4" width="26.19921875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="26" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.19921875" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="13" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="43">
+      <c r="B3" s="14">
         <v>45418</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="44"/>
-      <c r="C4" s="41" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="46"/>
+      <c r="E4" s="20"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="44"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="5" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="46"/>
+      <c r="E5" s="20"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="44"/>
-      <c r="C6" s="22" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="47"/>
+      <c r="E6" s="22"/>
     </row>
     <row r="7" spans="2:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="51">
+      <c r="B7" s="23">
         <v>45419</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="48" t="s">
+      <c r="E7" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="52"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="7" t="s">
+      <c r="B8" s="26"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="49"/>
+      <c r="E8" s="20"/>
     </row>
     <row r="9" spans="2:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="52"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="49"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="20"/>
     </row>
     <row r="10" spans="2:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="53"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="50"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="22"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="35">
+      <c r="B11" s="23">
         <v>45420</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="38" t="s">
+      <c r="E11" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="36"/>
-      <c r="C12" s="23" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="39"/>
+      <c r="E12" s="20"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="36"/>
-      <c r="C13" s="23" t="s">
+      <c r="B13" s="26"/>
+      <c r="C13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="39"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="20"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="37"/>
-      <c r="C14" s="23" t="s">
+      <c r="B14" s="30"/>
+      <c r="C14" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="40"/>
+      <c r="E14" s="22"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="32">
+      <c r="B15" s="23">
         <v>45421</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="11" t="s">
         <v>17</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="57" t="s">
+      <c r="E15" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="33"/>
-      <c r="C16" s="24" t="s">
+      <c r="B16" s="26"/>
+      <c r="C16" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="58"/>
+      <c r="E16" s="20"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="33"/>
-      <c r="C17" s="24" t="s">
+      <c r="B17" s="26"/>
+      <c r="C17" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="58"/>
+      <c r="E17" s="20"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="34"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="59"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="22"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="60">
+      <c r="B19" s="23">
         <v>45422</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="63" t="s">
+      <c r="E19" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="61"/>
-      <c r="C20" s="25" t="s">
+      <c r="B20" s="26"/>
+      <c r="C20" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="64"/>
+      <c r="E20" s="20"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="61"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="64"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="20"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="62"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="65"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="20"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="66">
+      <c r="B23" s="23">
         <v>45423</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="31" t="s">
+      <c r="D23" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="45" t="s">
+      <c r="E23" s="42" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="67"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="46"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="42"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="67"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="46"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="42"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="68"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="47"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="42"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="51">
+      <c r="B27" s="6">
         <v>45424</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="8"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="7"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="7"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="7"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="23">
+        <v>45425</v>
+      </c>
+      <c r="C31" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="17"/>
-      <c r="E27" s="48" t="s">
+      <c r="D31" s="40"/>
+      <c r="E31" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="52"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="49"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="52"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="49"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="53"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="50"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="69">
-        <v>45425</v>
-      </c>
-      <c r="C31" s="27" t="s">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="26"/>
+      <c r="C32" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="12"/>
+      <c r="E32" s="20"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="26"/>
+      <c r="C33" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="12"/>
+      <c r="E33" s="20"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="26"/>
+      <c r="C34" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" s="12"/>
+      <c r="E34" s="22"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="23">
+        <v>45426</v>
+      </c>
+      <c r="C35" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="18"/>
-      <c r="E31" s="63" t="s">
+      <c r="D35" s="12"/>
+      <c r="E35" s="17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="70"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="64"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="70"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="64"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="71"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="65"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="72">
-        <v>45426</v>
-      </c>
-      <c r="C35" s="28" t="s">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="26"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="20"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="26"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="20"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="26"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="22"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="38">
+        <v>45427</v>
+      </c>
+      <c r="C39" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D35" s="19"/>
-      <c r="E35" s="63" t="s">
+      <c r="D39" s="12"/>
+      <c r="E39" s="17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="73"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="64"/>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="73"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="64"/>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="74"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="65"/>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="38"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="20"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="38"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="20"/>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="38"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="E27:E30"/>
-    <mergeCell ref="E31:E34"/>
-    <mergeCell ref="E35:E38"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="B31:B34"/>
+  <mergeCells count="22">
     <mergeCell ref="B15:B18"/>
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="E11:E14"/>
@@ -1330,9 +1264,21 @@
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="C7:C10"/>
     <mergeCell ref="E15:E18"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="E39:E42"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E38" xr:uid="{BCBDDB21-E9F5-46EC-AB72-1EC828DD7146}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E27 E31:E42" xr:uid="{BCBDDB21-E9F5-46EC-AB72-1EC828DD7146}">
       <formula1>"Đã xong, đang học, chưa học"</formula1>
     </dataValidation>
   </dataValidations>
